--- a/biology/Zoologie/Cephalophus_niger/Cephalophus_niger.xlsx
+++ b/biology/Zoologie/Cephalophus_niger/Cephalophus_niger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Céphalophe noir (Cephalophus niger également connu sous le nom de tuba en dioula) est une espèce de Céphalophe vivant dans les forêts du sud de la Sierra Leone, du Libéria, de la Côte d'Ivoire, du Ghana, du Bénin et du Nigéria.
 Le Céphalophe noir mesure environ 500 mm de hauteur au garrot et pèse de 15 à 20 kg. Il a un pelage noir avec le chef de couleur rouille et il a une large bande rouge entre les deux oreilles. Il a de longues cornes minces de 80 à 170 mm de long pour les mâles, mais les cornes de femelles atteignent seulement 30 mm.
